--- a/Results/Experimento3[04_15_2023-20_41].xlsx
+++ b/Results/Experimento3[04_15_2023-20_41].xlsx
@@ -1,37 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05544174-31E4-49B3-AD8D-863EE5D63F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>val_acc_list</t>
+  </si>
+  <si>
+    <t>test_acc</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>[0, 0.436, 0.5706, 0.5806, 0.7012, 0.7216, 0.6884, 0.7774, 0.8104, 0.8304, 0.7152, 0.793, 0.7762, 0.7618, 0.852, 0.8612, 0.853, 0.8584, 0.818, 0.7846, 0.7902, 0.7872, 0.834, 0.8584, 0.8674, 0.866, 0.8494, 0.8322, 0.8286, 0.823, 0.8576, 0.8468, 0.8694, 0.872, 0.8256, 0.8536, 0.8322, 0.8422, 0.8608, 0.8694, 0.8716, 0.8708, 0.866, 0.8356, 0.8304, 0.8512, 0.819, 0.8676, 0.879, 0.8834, 0.876]</t>
+  </si>
+  <si>
+    <t>87.78%</t>
+  </si>
+  <si>
+    <t>[1.532277798652649, 1.1684997916221618, 1.2288787841796875, 0.8785866677761078, 0.8486182570457459, 0.9533439755439759, 0.694640326499939, 0.5635323762893677, 0.5173100590705871, 0.8965509474277497, 0.6581654369831085, 0.6819392025470734, 0.7056714832782746, 0.4416662365198135, 0.4253134369850159, 0.45031745433807374, 0.4415756165981293, 0.5563898026943207, 0.7090876817703247, 0.6472910106182098, 0.6851691663265228, 0.523649987578392, 0.4573933959007263, 0.43357221186161043, 0.454198083281517, 0.4811570346355438, 0.5879600793123245, 0.5625830113887786, 0.6013844430446624, 0.48362616300582884, 0.549904203414917, 0.4654576599597931, 0.43620917201042175, 0.6777202665805817, 0.5439718097448349, 0.6355585992336273, 0.5598470807075501, 0.5243223249912262, 0.5008527189493179, 0.48190451264381406, 0.48137671649456026, 0.526620352268219, 0.6644999563694001, 0.6288988053798675, 0.5196892052888871, 0.6842351377010345, 0.48825596570968627, 0.4725803256034851, 0.4472555607557297, 0.49045143723487855]</t>
+  </si>
+  <si>
+    <t>[0.07349443783386728, 0.07377754744106899, 0.07552426347596962, 0.08581069121087362, 0.06211424826443737, 0.04137178059916262, 0.0128984115542105, 0.010209897641267321, 0.06033212323796266, 0.06115259948860765, 0.0858700585351586, 0.08596059963688514, 0.01649874516349157, 0.01242754491112248, 0.012186438504792755, 0.011904606539626203, 0.09233317148869391, 0.09376114892854816, 0.09755578641421939, 0.09966325340578128, 0.0640790821513638, 0.05051108638945559, 0.01886881390180109, 0.015084470613924275, 0.04370119834750265, 0.07314126630723453, 0.08990954501632521, 0.09137214359219073, 0.05252845967826779, 0.049820012167536745, 0.020668823126494124, 0.009025649891300738, 0.053156361488232946, 0.05418448460682169, 0.06865751943006738, 0.0806955563465279, 0.042713036604061554, 0.03106978268676973, 0.02311427760925128, 0.022089950604560066, 0.031391887983132916, 0.06536700473742726, 0.08460748741884754, 0.09179841294420407, 0.07803861080631072, 0.04306253215158466, 0.025554987860006106, 0.011666489783370558, 0.032546847541556664, 0.08478833049037005]</t>
+  </si>
+  <si>
+    <t>87.6%</t>
+  </si>
+  <si>
+    <t>[0, 0.338, 0.4026, 0.48, 0.563, 0.5512, 0.643, 0.6972, 0.7174, 0.7714, 0.7812, 0.7786, 0.7934, 0.8072, 0.7722, 0.7908, 0.813, 0.8224, 0.8212, 0.8448, 0.8254, 0.8412, 0.8162, 0.855, 0.817, 0.8438, 0.8296, 0.8518, 0.8306, 0.8308, 0.8142, 0.8416, 0.8574, 0.8386, 0.8396, 0.8482, 0.8396, 0.8472, 0.8498, 0.8612, 0.8464, 0.866, 0.8652, 0.8396, 0.8612, 0.861, 0.8506, 0.8542, 0.8554, 0.854, 0.8612]</t>
+  </si>
+  <si>
+    <t>86.06%</t>
+  </si>
+  <si>
+    <t>[1.8726459264755249, 1.6161132097244262, 1.403154182434082, 1.2252329468727112, 1.3860085487365723, 1.0148008942604065, 0.8610930263996124, 0.805336880683899, 0.6663050353527069, 0.6432099163532257, 0.6508493185043335, 0.6104699790477752, 0.5687263041734696, 0.6947414398193359, 0.6373650550842285, 0.5555081069469452, 0.5512010514736175, 0.5571945041418076, 0.4651503324508667, 0.5469787806272507, 0.5093171030282975, 0.597037073969841, 0.45362211763858795, 0.6204363882541657, 0.5175889611244202, 0.5542622566223144, 0.481959468126297, 0.582844614982605, 0.5841328531503678, 0.6420823931694031, 0.55596022605896, 0.49341958165168764, 0.5419353038072586, 0.555585989356041, 0.5439173102378845, 0.6114861160516739, 0.5676505893468857, 0.5897577911615371, 0.5043022632598877, 0.6228337585926056, 0.5020966351032257, 0.5248075395822525, 0.6418616652488709, 0.5443600207567215, 0.534907391667366, 0.6160254836082458, 0.5441267520189286, 0.5681234657764435, 0.5539565712213517, 0.5332359999418259]</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>[0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
+  </si>
+  <si>
+    <t>86.12%</t>
+  </si>
+  <si>
+    <t>[0, 0.222, 0.32, 0.4216, 0.4666, 0.5054, 0.5632, 0.569, 0.6186, 0.65, 0.688, 0.6876, 0.6738, 0.6928, 0.6886, 0.7006, 0.6964, 0.7084, 0.6954, 0.7116, 0.7092, 0.7164, 0.7032, 0.7086, 0.7232, 0.7326, 0.7058, 0.722, 0.7198, 0.7338, 0.7246, 0.732, 0.6984, 0.736, 0.722, 0.7424, 0.7316, 0.7462, 0.718, 0.7422, 0.7326, 0.743, 0.7328, 0.7464, 0.7112, 0.749, 0.737, 0.7522, 0.739, 0.7536, 0.7182]</t>
+  </si>
+  <si>
+    <t>71.82%</t>
+  </si>
+  <si>
+    <t>[2.1216074228286743, 1.8283560156822205, 1.5275437116622925, 1.4591052532196045, 1.3435635447502137, 1.1916714787483216, 1.2291457295417785, 1.046111422777176, 1.0197416424751282, 0.8987434506416321, 0.8915679037570954, 0.9264929294586182, 0.8747132897377015, 0.885328733921051, 0.855224996805191, 0.8927252233028412, 0.8407163500785828, 0.8849104583263397, 0.8206489682197571, 0.8298531532287597, 0.8140967190265656, 0.8608115613460541, 0.8250585615634918, 0.7973093569278717, 0.780704528093338, 0.8698542654514313, 0.7932426333427429, 0.8064630210399628, 0.7633207440376282, 0.7935903370380402, 0.7670006215572357, 0.9291920781135559, 0.7701798856258393, 0.7947894632816315, 0.7484930455684662, 0.8112746000289917, 0.7446637690067291, 0.8494441688060761, 0.7512169361114502, 0.787715095281601, 0.7534111380577088, 0.8217573523521423, 0.7524205029010773, 0.8930279016494751, 0.7441835045814514, 0.809634554386139, 0.7386983752250671, 0.8019414067268371, 0.7370947360992431, 0.8947792768478393]</t>
+  </si>
+  <si>
+    <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
+  </si>
+  <si>
+    <t>TA Decreciente (propuesta)</t>
+  </si>
+  <si>
+    <t>TA Ciclica Aleatoria Ext</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +132,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +456,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc_list</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>test_acc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[0, 0.436, 0.5706, 0.5806, 0.7012, 0.7216, 0.6884, 0.7774, 0.8104, 0.8304, 0.7152, 0.793, 0.7762, 0.7618, 0.852, 0.8612, 0.853, 0.8584, 0.818, 0.7846, 0.7902, 0.7872, 0.834, 0.8584, 0.8674, 0.866, 0.8494, 0.8322, 0.8286, 0.823, 0.8576, 0.8468, 0.8694, 0.872, 0.8256, 0.8536, 0.8322, 0.8422, 0.8608, 0.8694, 0.8716, 0.8708, 0.866, 0.8356, 0.8304, 0.8512, 0.819, 0.8676, 0.879, 0.8834, 0.876]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>87.78%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[1.532277798652649, 1.1684997916221618, 1.2288787841796875, 0.8785866677761078, 0.8486182570457459, 0.9533439755439759, 0.694640326499939, 0.5635323762893677, 0.5173100590705871, 0.8965509474277497, 0.6581654369831085, 0.6819392025470734, 0.7056714832782746, 0.4416662365198135, 0.4253134369850159, 0.45031745433807374, 0.4415756165981293, 0.5563898026943207, 0.7090876817703247, 0.6472910106182098, 0.6851691663265228, 0.523649987578392, 0.4573933959007263, 0.43357221186161043, 0.454198083281517, 0.4811570346355438, 0.5879600793123245, 0.5625830113887786, 0.6013844430446624, 0.48362616300582884, 0.549904203414917, 0.4654576599597931, 0.43620917201042175, 0.6777202665805817, 0.5439718097448349, 0.6355585992336273, 0.5598470807075501, 0.5243223249912262, 0.5008527189493179, 0.48190451264381406, 0.48137671649456026, 0.526620352268219, 0.6644999563694001, 0.6288988053798675, 0.5196892052888871, 0.6842351377010345, 0.48825596570968627, 0.4725803256034851, 0.4472555607557297, 0.49045143723487855]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>2624478</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Random Ciclico Extended</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.07349443783386728, 0.07377754744106899, 0.07552426347596962, 0.08581069121087362, 0.06211424826443737, 0.04137178059916262, 0.0128984115542105, 0.010209897641267321, 0.06033212323796266, 0.06115259948860765, 0.0858700585351586, 0.08596059963688514, 0.01649874516349157, 0.01242754491112248, 0.012186438504792755, 0.011904606539626203, 0.09233317148869391, 0.09376114892854816, 0.09755578641421939, 0.09966325340578128, 0.0640790821513638, 0.05051108638945559, 0.01886881390180109, 0.015084470613924275, 0.04370119834750265, 0.07314126630723453, 0.08990954501632521, 0.09137214359219073, 0.05252845967826779, 0.049820012167536745, 0.020668823126494124, 0.009025649891300738, 0.053156361488232946, 0.05418448460682169, 0.06865751943006738, 0.0806955563465279, 0.042713036604061554, 0.03106978268676973, 0.02311427760925128, 0.022089950604560066, 0.031391887983132916, 0.06536700473742726, 0.08460748741884754, 0.09179841294420407, 0.07803861080631072, 0.04306253215158466, 0.025554987860006106, 0.011666489783370558, 0.032546847541556664, 0.08478833049037005]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>87.6%</t>
-        </is>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[0, 0.338, 0.4026, 0.48, 0.563, 0.5512, 0.643, 0.6972, 0.7174, 0.7714, 0.7812, 0.7786, 0.7934, 0.8072, 0.7722, 0.7908, 0.813, 0.8224, 0.8212, 0.8448, 0.8254, 0.8412, 0.8162, 0.855, 0.817, 0.8438, 0.8296, 0.8518, 0.8306, 0.8308, 0.8142, 0.8416, 0.8574, 0.8386, 0.8396, 0.8482, 0.8396, 0.8472, 0.8498, 0.8612, 0.8464, 0.866, 0.8652, 0.8396, 0.8612, 0.861, 0.8506, 0.8542, 0.8554, 0.854, 0.8612]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>86.06%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[1.8726459264755249, 1.6161132097244262, 1.403154182434082, 1.2252329468727112, 1.3860085487365723, 1.0148008942604065, 0.8610930263996124, 0.805336880683899, 0.6663050353527069, 0.6432099163532257, 0.6508493185043335, 0.6104699790477752, 0.5687263041734696, 0.6947414398193359, 0.6373650550842285, 0.5555081069469452, 0.5512010514736175, 0.5571945041418076, 0.4651503324508667, 0.5469787806272507, 0.5093171030282975, 0.597037073969841, 0.45362211763858795, 0.6204363882541657, 0.5175889611244202, 0.5542622566223144, 0.481959468126297, 0.582844614982605, 0.5841328531503678, 0.6420823931694031, 0.55596022605896, 0.49341958165168764, 0.5419353038072586, 0.555585989356041, 0.5439173102378845, 0.6114861160516739, 0.5676505893468857, 0.5897577911615371, 0.5043022632598877, 0.6228337585926056, 0.5020966351032257, 0.5248075395822525, 0.6418616652488709, 0.5443600207567215, 0.534907391667366, 0.6160254836082458, 0.5441267520189286, 0.5681234657764435, 0.5539565712213517, 0.5332359999418259]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>2990263.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>86.12%</t>
-        </is>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[0, 0.222, 0.32, 0.4216, 0.4666, 0.5054, 0.5632, 0.569, 0.6186, 0.65, 0.688, 0.6876, 0.6738, 0.6928, 0.6886, 0.7006, 0.6964, 0.7084, 0.6954, 0.7116, 0.7092, 0.7164, 0.7032, 0.7086, 0.7232, 0.7326, 0.7058, 0.722, 0.7198, 0.7338, 0.7246, 0.732, 0.6984, 0.736, 0.722, 0.7424, 0.7316, 0.7462, 0.718, 0.7422, 0.7326, 0.743, 0.7328, 0.7464, 0.7112, 0.749, 0.737, 0.7522, 0.739, 0.7536, 0.7182]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>71.82%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[2.1216074228286743, 1.8283560156822205, 1.5275437116622925, 1.4591052532196045, 1.3435635447502137, 1.1916714787483216, 1.2291457295417785, 1.046111422777176, 1.0197416424751282, 0.8987434506416321, 0.8915679037570954, 0.9264929294586182, 0.8747132897377015, 0.885328733921051, 0.855224996805191, 0.8927252233028412, 0.8407163500785828, 0.8849104583263397, 0.8206489682197571, 0.8298531532287597, 0.8140967190265656, 0.8608115613460541, 0.8250585615634918, 0.7973093569278717, 0.780704528093338, 0.8698542654514313, 0.7932426333427429, 0.8064630210399628, 0.7633207440376282, 0.7935903370380402, 0.7670006215572357, 0.9291920781135559, 0.7701798856258393, 0.7947894632816315, 0.7484930455684662, 0.8112746000289917, 0.7446637690067291, 0.8494441688060761, 0.7512169361114502, 0.787715095281601, 0.7534111380577088, 0.8217573523521423, 0.7524205029010773, 0.8930279016494751, 0.7441835045814514, 0.809634554386139, 0.7386983752250671, 0.8019414067268371, 0.7370947360992431, 0.8947792768478393]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>2738574.25</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nuestro decreciente con Momentum</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>71.82%</t>
-        </is>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
